--- a/TrafficLight.xlsx
+++ b/TrafficLight.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LE484_Projects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Specification" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Module spec." sheetId="4" r:id="rId5"/>
     <sheet name="Test spec." sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,7 +429,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -445,7 +440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -613,7 +608,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -621,14 +616,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -636,7 +631,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1361,7 +1356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1371,25 +1366,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B10"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="60.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1404,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1413,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1422,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1431,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1440,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1449,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1458,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1472,27 +1467,27 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1511,17 +1506,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1549,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -1591,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1689,25 +1686,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="8" customFormat="1" ht="35.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1723,24 +1720,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.625" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1751,107 +1748,107 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="18"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="19"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>107</v>
       </c>
@@ -1862,75 +1859,75 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="18"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -1941,36 +1938,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="17"/>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="17"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="18"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>156</v>
       </c>
@@ -1981,61 +1978,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="17"/>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="17"/>
       <c r="C40" s="12"/>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="17"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="17"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="18"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A19:A28"/>
@@ -2061,13 +2058,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="7" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>112</v>
       </c>
@@ -2088,7 +2085,7 @@
       </c>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>113</v>
       </c>
@@ -2105,7 +2102,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>114</v>
       </c>
@@ -2118,7 +2115,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>116</v>
       </c>
@@ -2133,7 +2130,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>117</v>
       </c>
@@ -2154,7 +2151,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -2163,7 +2160,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -2193,16 +2190,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -2222,7 +2219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>103</v>
       </c>
@@ -2236,7 +2233,7 @@
       <c r="E2" s="26"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>77</v>
       </c>
@@ -2250,7 +2247,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>89</v>
       </c>
@@ -2264,7 +2261,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
@@ -2276,7 +2273,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
@@ -2288,7 +2285,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>91</v>
       </c>
@@ -2302,7 +2299,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
@@ -2314,7 +2311,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
@@ -2326,7 +2323,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
@@ -2338,7 +2335,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
@@ -2350,7 +2347,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
@@ -2362,7 +2359,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>162</v>
       </c>
@@ -2376,7 +2373,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
@@ -2388,7 +2385,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3" t="s">
@@ -2400,7 +2397,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
@@ -2412,7 +2409,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
@@ -2443,15 +2440,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>131</v>
       </c>
@@ -2477,7 +2474,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -2486,7 +2483,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -2495,7 +2492,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>134</v>
       </c>
@@ -2504,7 +2501,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>135</v>
       </c>
@@ -2513,7 +2510,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
@@ -2522,7 +2519,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -2531,7 +2528,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
@@ -2540,7 +2537,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
@@ -2549,7 +2546,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
@@ -2558,7 +2555,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -2567,7 +2564,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
@@ -2576,7 +2573,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>143</v>
       </c>
@@ -2585,7 +2582,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>144</v>
       </c>
@@ -2594,7 +2591,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -2603,7 +2600,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>157</v>
       </c>
@@ -2612,7 +2609,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
@@ -2621,7 +2618,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>159</v>
       </c>
@@ -2630,7 +2627,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
@@ -2639,7 +2636,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>161</v>
       </c>
